--- a/code/model_types.xlsx
+++ b/code/model_types.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lphung\Documents\TAFF\projets R\PROJETS_PREVISION\prevision_exploration_TEST\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C12D2BDB-D372-414A-8C2A-565054D08B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2922687A-2799-4D7A-A7B4-21B41CF6D2BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-10344" yWindow="1140" windowWidth="23040" windowHeight="12204" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ipi M1 + PMI M3" sheetId="1" r:id="rId1"/>
+    <sheet name="enquêtes M1" sheetId="2" r:id="rId2"/>
+    <sheet name="T2 2023 - enquêtes M2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="76">
   <si>
     <t>nom_model</t>
   </si>
@@ -76,13 +78,203 @@
   </si>
   <si>
     <t>sum_prod_passee_growthrate</t>
+  </si>
+  <si>
+    <t>model_insee_1</t>
+  </si>
+  <si>
+    <t>0.01443739</t>
+  </si>
+  <si>
+    <t>0.009314825</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>insee_production_prevue</t>
+  </si>
+  <si>
+    <t>-0.0035665</t>
+  </si>
+  <si>
+    <t>0.0003442</t>
+  </si>
+  <si>
+    <t>model_insee_2</t>
+  </si>
+  <si>
+    <t>0.01399626</t>
+  </si>
+  <si>
+    <t>0.009001977</t>
+  </si>
+  <si>
+    <t>insee_production_prevue_m3_t_1</t>
+  </si>
+  <si>
+    <t>-0.0051765</t>
+  </si>
+  <si>
+    <t>0.0005219</t>
+  </si>
+  <si>
+    <t>0.01454438</t>
+  </si>
+  <si>
+    <t>model_insee_3</t>
+  </si>
+  <si>
+    <t>0.009520522</t>
+  </si>
+  <si>
+    <t>var1_insee_production_prevue</t>
+  </si>
+  <si>
+    <t>-0.0003050</t>
+  </si>
+  <si>
+    <t>0.0004976</t>
+  </si>
+  <si>
+    <t>model_insee_4</t>
+  </si>
+  <si>
+    <t>0.01438556</t>
+  </si>
+  <si>
+    <t>0.009450254</t>
+  </si>
+  <si>
+    <t>insee_production_passee</t>
+  </si>
+  <si>
+    <t>-0.0020161</t>
+  </si>
+  <si>
+    <t>0.0002684</t>
+  </si>
+  <si>
+    <t>model_insee_5</t>
+  </si>
+  <si>
+    <t>0.01447984</t>
+  </si>
+  <si>
+    <t>0.009376519</t>
+  </si>
+  <si>
+    <t>insee_climat</t>
+  </si>
+  <si>
+    <t>-0.0316234</t>
+  </si>
+  <si>
+    <t>0.0003045</t>
+  </si>
+  <si>
+    <t>model_pmi_1</t>
+  </si>
+  <si>
+    <t>0.01458892</t>
+  </si>
+  <si>
+    <t>0.009483817</t>
+  </si>
+  <si>
+    <t>pmi_climat</t>
+  </si>
+  <si>
+    <t>-0.0173213</t>
+  </si>
+  <si>
+    <t>0.0003279</t>
+  </si>
+  <si>
+    <t>0.01464281</t>
+  </si>
+  <si>
+    <t>0.009434282</t>
+  </si>
+  <si>
+    <t>pmi_new_commandes</t>
+  </si>
+  <si>
+    <t>-0.0058053</t>
+  </si>
+  <si>
+    <t>0.0001043</t>
+  </si>
+  <si>
+    <t>model_pmi_2</t>
+  </si>
+  <si>
+    <t>model_pmi_3</t>
+  </si>
+  <si>
+    <t>0.01468828</t>
+  </si>
+  <si>
+    <t>0.009637214</t>
+  </si>
+  <si>
+    <t>pmi_production_passee</t>
+  </si>
+  <si>
+    <t>-2.384e-04</t>
+  </si>
+  <si>
+    <t>-8.752e-06</t>
+  </si>
+  <si>
+    <t>model_insee_6</t>
+  </si>
+  <si>
+    <t>0.01435274</t>
+  </si>
+  <si>
+    <t>0.009150581</t>
+  </si>
+  <si>
+    <t>-0.0056477</t>
+  </si>
+  <si>
+    <t>0.0006425</t>
+  </si>
+  <si>
+    <t>-0.0001139</t>
+  </si>
+  <si>
+    <t>prevision</t>
+  </si>
+  <si>
+    <t>qt_insee_production_passee</t>
+  </si>
+  <si>
+    <t>coef_variable (dernière estimation modèle)</t>
+  </si>
+  <si>
+    <t>out_of_sample_rmse</t>
+  </si>
+  <si>
+    <t>out_of_sample_mae</t>
+  </si>
+  <si>
+    <t>second_best_model</t>
+  </si>
+  <si>
+    <t>in_sample_period</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="174" formatCode="0.000000000"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,13 +298,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -127,10 +351,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="174" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -146,6 +383,104 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>173258</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42E853E8-D8E0-4787-9EDE-0E6A1975AA4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9822180" y="356138"/>
+          <a:ext cx="7720965" cy="4995007"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>807720</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>47610</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF6130D7-5DE7-436A-8147-4F294FDB93AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8641080" y="182880"/>
+          <a:ext cx="8214360" cy="5351130"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -413,11 +748,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="22.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="33.109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -564,4 +902,395 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21E4584B-91EB-43EE-9C87-4CD9C31F843C}">
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" customWidth="1"/>
+    <col min="4" max="4" width="48.6640625" customWidth="1"/>
+    <col min="5" max="5" width="23.5546875" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="9">
+        <v>3.3E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="9">
+        <v>-8.0000000000000004E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6347D3E5-CF20-4905-80AA-91151282B869}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="18" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="18.44140625" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" customWidth="1"/>
+    <col min="6" max="6" width="25.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="11">
+        <v>24</v>
+      </c>
+      <c r="C2" s="11">
+        <v>8.7899999999999992E-3</v>
+      </c>
+      <c r="D2" s="11">
+        <v>6.9100000000000003E-3</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="12">
+        <v>-8.19753E-4</v>
+      </c>
+      <c r="G2" s="13">
+        <v>8.1099999999999998E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="12">
+        <v>3.1364640000000003E-4</v>
+      </c>
+      <c r="G3" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>